--- a/Modelos desafio 2.xlsx
+++ b/Modelos desafio 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Desafio1-G3-mainNUEVO\Desafio1-G3-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
   <si>
     <t>Modelos:</t>
   </si>
@@ -54,9 +54,6 @@
     <t>surface_total_in_m2</t>
   </si>
   <si>
-    <t>sin normalizar</t>
-  </si>
-  <si>
     <t>price_usd_per_m2</t>
   </si>
   <si>
@@ -114,20 +111,26 @@
     <t>data_filtro</t>
   </si>
   <si>
-    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, sup^2, sup^3, sup^4, surface_covered_in_m2</t>
-  </si>
-  <si>
-    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, sup^2, sup^3, sup^4, surface_covered_in_m2, sup_covered_log</t>
-  </si>
-  <si>
-    <t>lasso</t>
+    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2</t>
+  </si>
+  <si>
+    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log</t>
+  </si>
+  <si>
+    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log, price_aprox_usd</t>
+  </si>
+  <si>
+    <t>ridge</t>
+  </si>
+  <si>
+    <t>LR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +159,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Var(--jp-code-font-family)"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,7 +190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -194,11 +213,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -212,8 +257,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,30 +489,32 @@
   </sheetPr>
   <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="130" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="147.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" ht="12.75">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="12.75">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -479,21 +536,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="12.75">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
+      <c r="D5" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="3">
         <v>0.03</v>
@@ -505,21 +562,21 @@
         <v>911.48</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="3">
         <v>0.3</v>
@@ -531,21 +588,21 @@
         <v>775.32</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <v>0.49</v>
@@ -557,21 +614,21 @@
         <v>655.95</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="3">
         <v>0.5</v>
@@ -583,21 +640,21 @@
         <v>645.23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="3">
         <v>0.5</v>
@@ -609,21 +666,21 @@
         <v>645.23</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3">
         <v>0.5</v>
@@ -635,21 +692,21 @@
         <v>652.63</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="12.75">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="3">
         <v>0.51</v>
@@ -661,21 +718,21 @@
         <v>645.64</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="12.75">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="3">
         <v>0.51</v>
@@ -687,21 +744,21 @@
         <v>645.65</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="3">
         <v>0.51</v>
@@ -713,21 +770,21 @@
         <v>645.29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="12.75">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="3">
         <v>0.51</v>
@@ -739,21 +796,21 @@
         <v>645.13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3">
         <v>0.52</v>
@@ -765,21 +822,21 @@
         <v>640.13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75">
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="3">
         <v>0.52</v>
@@ -791,21 +848,21 @@
         <v>638.97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3">
         <v>0.52</v>
@@ -817,21 +874,21 @@
         <v>638.99</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75">
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3">
         <v>0.51</v>
@@ -843,21 +900,21 @@
         <v>645.23</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="12.75">
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
+        <v>22</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5">
         <v>0.52</v>
@@ -869,21 +926,21 @@
         <v>638.97</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="12.75">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="3">
         <v>0.56000000000000005</v>
@@ -895,21 +952,21 @@
         <v>609.16999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75">
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="3">
         <v>0.56000000000000005</v>
@@ -921,21 +978,21 @@
         <v>610.74</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3">
         <v>0.56999999999999995</v>
@@ -947,21 +1004,21 @@
         <v>650.41999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75">
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="3">
         <v>0.16</v>
@@ -973,20 +1030,22 @@
         <v>3139.31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75">
       <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="7"/>
+      <c r="D24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="3">
         <v>0.56000000000000005</v>
       </c>
@@ -997,84 +1056,134 @@
         <v>600.85</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75">
       <c r="A25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.58791499999999997</v>
+      </c>
+      <c r="G25" s="11">
+        <v>0.60183299999999995</v>
+      </c>
+      <c r="H25" s="9">
+        <v>579.70000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="12.75">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.57259899999999997</v>
+      </c>
+      <c r="G26" s="11">
+        <v>0.58525499999999997</v>
+      </c>
+      <c r="H26" s="9">
+        <v>591.64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12.75">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0.58762099999999995</v>
-      </c>
-      <c r="H25" s="4">
-        <v>589.99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="D27" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.65688199999999997</v>
+      </c>
+      <c r="G27" s="11">
+        <v>0.68490200000000001</v>
+      </c>
+      <c r="H27" s="9">
+        <v>515.69000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="12.75">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0.58757099999999995</v>
-      </c>
-      <c r="H26" s="4">
-        <v>589.99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E28" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0.64204000000000006</v>
+      </c>
+      <c r="G28" s="11">
+        <v>0.664775</v>
+      </c>
+      <c r="H28" s="9">
+        <v>531.91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="12.75">
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75">
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75">
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75">
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:8" ht="12.75">
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:8" ht="12.75">
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:8" ht="12.75">
       <c r="H35" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H5:H35">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="H5:H24 H29:H35">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1085,8 +1194,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G26">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="G5:G24">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1097,6 +1206,90 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H24">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G24">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G24">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H28">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Modelos desafio 2.xlsx
+++ b/Modelos desafio 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Desafio1-G3-mainNUEVO\Desafio1-G3-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Desktop\Desafio1-G3-mainFINAL\Desafio1-G3-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
   <si>
     <t>Modelos:</t>
   </si>
@@ -117,13 +117,16 @@
     <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log</t>
   </si>
   <si>
-    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log, price_aprox_usd</t>
-  </si>
-  <si>
     <t>ridge</t>
   </si>
   <si>
     <t>LR</t>
+  </si>
+  <si>
+    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log, sup^2</t>
+  </si>
+  <si>
+    <t>surface_total_in_m2, property type, state_name, rooms, pileta, parrilla, quincho, patio, cochera, balcon, sup total log, surface_covered_in_m2, sup_covered_log, sup^2, sup^3</t>
   </si>
 </sst>
 </file>
@@ -250,18 +253,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -269,6 +266,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,14 +493,14 @@
   <dimension ref="A2:H35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="147.140625" customWidth="1"/>
+    <col min="3" max="3" width="144.85546875" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" customWidth="1"/>
@@ -506,7 +509,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="12.75">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -514,7 +517,7 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -540,25 +543,25 @@
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>34</v>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="13">
         <v>0.03</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="13">
         <v>5.4390000000000003E-3</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>911.48</v>
       </c>
     </row>
@@ -566,25 +569,25 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>34</v>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="13">
         <v>0.3</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="13">
         <v>0.28039799999999998</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>775.32</v>
       </c>
     </row>
@@ -592,25 +595,25 @@
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>34</v>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="13">
         <v>0.49</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="13">
         <v>0.4849</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>655.95</v>
       </c>
     </row>
@@ -618,25 +621,25 @@
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>34</v>
+      <c r="D8" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="13">
         <v>0.5</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="13">
         <v>0.48849999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>645.23</v>
       </c>
     </row>
@@ -644,25 +647,25 @@
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="13">
         <v>0.5</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="13">
         <v>0.48863000000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>645.23</v>
       </c>
     </row>
@@ -670,25 +673,25 @@
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>34</v>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="13">
         <v>0.5</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="13">
         <v>0.49009999999999998</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>652.63</v>
       </c>
     </row>
@@ -696,25 +699,25 @@
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>34</v>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="13">
         <v>0.51</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="13">
         <v>0.50090000000000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>645.64</v>
       </c>
     </row>
@@ -722,25 +725,25 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>34</v>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="13">
         <v>0.51</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="13">
         <v>0.50090000000000001</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>645.65</v>
       </c>
     </row>
@@ -748,25 +751,25 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>34</v>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="13">
         <v>0.51</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="13">
         <v>0.50151999999999997</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>645.29</v>
       </c>
     </row>
@@ -774,25 +777,25 @@
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>34</v>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="13">
         <v>0.51</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="13">
         <v>0.50170000000000003</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>645.13</v>
       </c>
     </row>
@@ -800,25 +803,25 @@
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>34</v>
+      <c r="D15" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="13">
         <v>0.52</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="13">
         <v>0.50939999999999996</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>640.13</v>
       </c>
     </row>
@@ -826,25 +829,25 @@
       <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>34</v>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="13">
         <v>0.52</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="13">
         <v>0.51119999999999999</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>638.97</v>
       </c>
     </row>
@@ -852,25 +855,25 @@
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>34</v>
+      <c r="D17" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="13">
         <v>0.52</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="13">
         <v>0.51119999999999999</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>638.99</v>
       </c>
     </row>
@@ -878,25 +881,25 @@
       <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>34</v>
+      <c r="D18" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="13">
         <v>0.51</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="13">
         <v>0.50160000000000005</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>645.23</v>
       </c>
     </row>
@@ -904,25 +907,25 @@
       <c r="A19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>34</v>
+      <c r="D19" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="14">
         <v>0.52</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>0.51123499999999999</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>638.97</v>
       </c>
     </row>
@@ -930,25 +933,25 @@
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>34</v>
+      <c r="D20" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="13">
         <v>0.55569999999999997</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>609.16999999999996</v>
       </c>
     </row>
@@ -956,25 +959,25 @@
       <c r="A21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>34</v>
+      <c r="D21" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="13">
         <v>0.5534</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>610.74</v>
       </c>
     </row>
@@ -982,25 +985,25 @@
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>34</v>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="13">
         <v>0.56999999999999995</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="13">
         <v>0.48930000000000001</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>650.41999999999996</v>
       </c>
     </row>
@@ -1008,25 +1011,25 @@
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>34</v>
+      <c r="D23" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="13">
         <v>0.16</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="13">
         <v>-10.79</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>3139.31</v>
       </c>
     </row>
@@ -1034,25 +1037,25 @@
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>34</v>
+      <c r="D24" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="13">
         <v>0.56000000000000005</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="13">
         <v>0.57224600000000003</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>600.85</v>
       </c>
     </row>
@@ -1060,22 +1063,22 @@
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>34</v>
+      <c r="D25" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="13">
         <v>0.58791499999999997</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="9">
         <v>0.60183299999999995</v>
       </c>
       <c r="H25" s="9">
@@ -1086,22 +1089,22 @@
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>33</v>
+      <c r="D26" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="13">
         <v>0.57259899999999997</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="9">
         <v>0.58525499999999997</v>
       </c>
       <c r="H26" s="9">
@@ -1112,59 +1115,105 @@
       <c r="A27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.65688199999999997</v>
-      </c>
-      <c r="G27" s="11">
-        <v>0.68490200000000001</v>
+      <c r="D27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.58842799999999995</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.60222399999999998</v>
       </c>
       <c r="H27" s="9">
-        <v>515.69000000000005</v>
+        <v>579.41</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.64204000000000006</v>
-      </c>
-      <c r="G28" s="11">
-        <v>0.664775</v>
+      <c r="E28" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0.57251200000000002</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.58511000000000002</v>
       </c>
       <c r="H28" s="9">
-        <v>531.91</v>
+        <v>591.75</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75">
-      <c r="H29" s="1"/>
+      <c r="A29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.587754</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.60097</v>
+      </c>
+      <c r="H29" s="9">
+        <v>580.32000000000005</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="12.75">
-      <c r="H30" s="1"/>
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.57251300000000005</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.58511100000000005</v>
+      </c>
+      <c r="H30" s="9">
+        <v>591.74</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="12.75">
       <c r="H31" s="1"/>
@@ -1182,8 +1231,8 @@
       <c r="H35" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H5:H24 H29:H35">
-    <cfRule type="colorScale" priority="17">
+  <conditionalFormatting sqref="H5:H24 H31:H35">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1195,7 +1244,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G24">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1207,7 +1256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H24">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1219,7 +1268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G24">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1231,7 +1280,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G24">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1243,7 +1292,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:H24">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1255,7 +1304,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5:G24">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1266,7 +1315,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H28">
+  <conditionalFormatting sqref="H5:H26">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H30">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1278,7 +1351,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5:G28">
+  <conditionalFormatting sqref="G5:G30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
